--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_14_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>305401.5269563873</v>
+        <v>300793.5849310824</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30037730.41470735</v>
+        <v>30037730.41470734</v>
       </c>
     </row>
     <row r="8">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>61.10759548617147</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>109.1787029805379</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
@@ -1548,7 +1548,7 @@
         <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
-        <v>9.660273925979</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
         <v>154.9126128011615</v>
@@ -1584,7 +1584,7 @@
         <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.32139587626322</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>233.5951356132028</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>94.81271967658228</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>52.06214045996163</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.08241278845473</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>121.4449780807755</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>103.9207925128493</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8185422817731</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>213.0844783327313</v>
+        <v>215.8806827417343</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>80.69834806689157</v>
+        <v>0.2690565586023217</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.8185422817731</v>
+        <v>77.02718908395013</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.38315576444948</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.72527026172938</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>344.8132708469095</v>
       </c>
     </row>
     <row r="24">
@@ -2450,7 +2450,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T24" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U24" t="n">
         <v>182.8430348789717</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>48.12519465980957</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>83.18897854286179</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H25" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>69.07914404849768</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>235.3494388712073</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>35.09556227833593</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T27" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U27" t="n">
         <v>182.8430348789717</v>
@@ -2721,19 +2721,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>163.6070689209988</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I28" t="n">
-        <v>69.07914404849768</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S28" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.6873578306832</v>
+        <v>98.30010871740521</v>
       </c>
       <c r="U28" t="n">
         <v>277.3287495917327</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>142.0729932055772</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>258.0327803503686</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2800,7 +2800,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>235.3494388712071</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T30" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U30" t="n">
         <v>182.8430348789717</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>147.8097161138582</v>
+        <v>17.23860248822092</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>133.580034863457</v>
       </c>
       <c r="I31" t="n">
-        <v>69.07914404849768</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.6873578306832</v>
       </c>
       <c r="U31" t="n">
         <v>277.3287495917327</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>385.4783833093776</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>235.3494388712071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T33" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U33" t="n">
         <v>182.8430348789717</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>80.32645989868384</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>44.70239314663088</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H34" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>69.07914404849768</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>235.3494388712073</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>65.14886230580375</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.5952734860514</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3398,7 +3398,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T36" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U36" t="n">
         <v>182.8430348789717</v>
@@ -3429,10 +3429,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115.7050009716313</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>52.11457922275517</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T37" t="n">
         <v>236.6873578306832</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.71082636078577</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>52.53623866012292</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U38" t="n">
         <v>255.5952734860514</v>
@@ -3635,7 +3635,7 @@
         <v>58.63603270501706</v>
       </c>
       <c r="T39" t="n">
-        <v>135.7142415386079</v>
+        <v>135.714241538608</v>
       </c>
       <c r="U39" t="n">
         <v>182.8430348789717</v>
@@ -3666,19 +3666,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>123.9871660664017</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.5232536285871</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.174231181331159</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S40" t="n">
         <v>151.2272088683957</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3754,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>24.73696881878038</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>53.16639005413046</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>182.1830488170764</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>4.212684723161964</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>80.32645989868378</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T43" t="n">
-        <v>236.6873578306832</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>277.3287495917327</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>74.2786862565265</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H44" t="n">
         <v>272.3478299760288</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>109.6097776746414</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.5922961793919</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.6070689209988</v>
       </c>
       <c r="H46" t="n">
         <v>133.580034863457</v>
       </c>
       <c r="I46" t="n">
-        <v>69.07914404849768</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>151.2272088683957</v>
       </c>
       <c r="T46" t="n">
-        <v>236.6873578306832</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3287495917327</v>
@@ -4200,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>201.4752893952649</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>886.469516880092</v>
+        <v>521.2936308188177</v>
       </c>
       <c r="C11" t="n">
-        <v>459.568786893392</v>
+        <v>521.2936308188177</v>
       </c>
       <c r="D11" t="n">
-        <v>36.27616607839228</v>
+        <v>98.00101000381801</v>
       </c>
       <c r="E11" t="n">
         <v>36.27616607839228</v>
@@ -5038,19 +5038,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I11" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872633</v>
       </c>
       <c r="J11" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149077</v>
       </c>
       <c r="K11" t="n">
-        <v>366.7061291250299</v>
+        <v>366.7061291250296</v>
       </c>
       <c r="L11" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303099</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103484</v>
+        <v>862.6140377103477</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5068,25 +5068,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="U11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="V11" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="W11" t="n">
-        <v>1703.526785757454</v>
+        <v>1352.861993942601</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.806786925202</v>
+        <v>941.1419951103478</v>
       </c>
       <c r="Y11" t="n">
-        <v>886.469516880092</v>
+        <v>941.1419951103478</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I12" t="n">
-        <v>51.80960935527474</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J12" t="n">
-        <v>410.0665369506949</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>535.8351625219349</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L12" t="n">
-        <v>712.4740133525838</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M12" t="n">
-        <v>921.7487118335988</v>
+        <v>945.2060176780107</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.903693665915</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O12" t="n">
-        <v>1333.947360653402</v>
+        <v>1357.404666497813</v>
       </c>
       <c r="P12" t="n">
-        <v>1487.345475499754</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q12" t="n">
-        <v>1780.360625738642</v>
+        <v>1674.905125453737</v>
       </c>
       <c r="R12" t="n">
         <v>1813.808303919614</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>855.4869141739048</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="C13" t="n">
-        <v>683.5143510528208</v>
+        <v>916.1654365227246</v>
       </c>
       <c r="D13" t="n">
-        <v>520.1975781795915</v>
+        <v>752.8486636494953</v>
       </c>
       <c r="E13" t="n">
-        <v>520.1975781795915</v>
+        <v>586.6404578023488</v>
       </c>
       <c r="F13" t="n">
-        <v>348.3358039541519</v>
+        <v>414.7786835769092</v>
       </c>
       <c r="G13" t="n">
-        <v>182.8625289220578</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H13" t="n">
-        <v>46.03401852887612</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I13" t="n">
         <v>36.27616607839228</v>
@@ -5205,16 +5205,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.3346842424261</v>
+        <v>606.7836421246718</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.25223946253</v>
+        <v>1055.701197344776</v>
       </c>
       <c r="N13" t="n">
-        <v>1454.169794682635</v>
+        <v>1152.699903436724</v>
       </c>
       <c r="O13" t="n">
-        <v>1540.462922504959</v>
+        <v>1238.993031259049</v>
       </c>
       <c r="P13" t="n">
         <v>1622.490343973492</v>
@@ -5223,28 +5223,28 @@
         <v>1813.808303919614</v>
       </c>
       <c r="R13" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251774</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T13" t="n">
-        <v>1417.340083083371</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U13" t="n">
-        <v>1137.198381565876</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="V13" t="n">
-        <v>855.4869141739048</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="W13" t="n">
-        <v>855.4869141739048</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="X13" t="n">
-        <v>855.4869141739048</v>
+        <v>1123.827764705763</v>
       </c>
       <c r="Y13" t="n">
-        <v>855.4869141739048</v>
+        <v>1106.33140523479</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>886.469516880092</v>
+        <v>888.301077875692</v>
       </c>
       <c r="C14" t="n">
-        <v>459.568786893392</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="D14" t="n">
-        <v>36.27616607839229</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="E14" t="n">
-        <v>36.27616607839229</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H14" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
         <v>68.08893453872656</v>
@@ -5284,10 +5284,10 @@
         <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303102</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5296,34 +5296,34 @@
         <v>1382.739131455147</v>
       </c>
       <c r="P14" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q14" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R14" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1300.021076707945</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1300.021076707945</v>
       </c>
       <c r="W14" t="n">
-        <v>1718.037880003875</v>
+        <v>1300.021076707945</v>
       </c>
       <c r="X14" t="n">
-        <v>1306.317881171622</v>
+        <v>888.301077875692</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.317881171622</v>
+        <v>888.301077875692</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F15" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G15" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H15" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I15" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J15" t="n">
-        <v>433.5238427951067</v>
+        <v>254.1641319694775</v>
       </c>
       <c r="K15" t="n">
-        <v>628.9641045014104</v>
+        <v>379.9327575407175</v>
       </c>
       <c r="L15" t="n">
-        <v>805.6029553320593</v>
+        <v>556.5716083713664</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.877653813074</v>
+        <v>765.8463068523814</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.032635645391</v>
+        <v>983.0012886846976</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632877</v>
+        <v>1178.044955672184</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1331.443070518537</v>
       </c>
       <c r="Q15" t="n">
-        <v>1674.905125453736</v>
+        <v>1780.360625738641</v>
       </c>
       <c r="R15" t="n">
         <v>1813.808303919613</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>598.1717991236378</v>
+        <v>568.833659360781</v>
       </c>
       <c r="C16" t="n">
-        <v>426.1992360025538</v>
+        <v>568.833659360781</v>
       </c>
       <c r="D16" t="n">
-        <v>426.1992360025538</v>
+        <v>568.833659360781</v>
       </c>
       <c r="E16" t="n">
-        <v>426.1992360025538</v>
+        <v>402.6254535136345</v>
       </c>
       <c r="F16" t="n">
-        <v>254.3374617771142</v>
+        <v>230.7636792881949</v>
       </c>
       <c r="G16" t="n">
-        <v>88.86418674502019</v>
+        <v>230.7636792881949</v>
       </c>
       <c r="H16" t="n">
-        <v>36.27616607839229</v>
+        <v>93.93516889501322</v>
       </c>
       <c r="I16" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J16" t="n">
-        <v>70.15038753583899</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K16" t="n">
-        <v>138.6345353799612</v>
+        <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>587.5520906000658</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M16" t="n">
-        <v>685.605438177685</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N16" t="n">
-        <v>941.4489734168435</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O16" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P16" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1645.530066266137</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1405.539232097734</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1125.397530580239</v>
       </c>
       <c r="V16" t="n">
-        <v>1532.096836527643</v>
+        <v>843.686063188268</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.244432700156</v>
+        <v>568.833659360781</v>
       </c>
       <c r="X16" t="n">
-        <v>1014.680536145961</v>
+        <v>568.833659360781</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.3377678357034</v>
+        <v>568.833659360781</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>585.8485910961786</v>
+        <v>1312.446456732234</v>
       </c>
       <c r="C17" t="n">
-        <v>158.9478611094787</v>
+        <v>885.5457267455345</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839229</v>
+        <v>462.2531059305347</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F17" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G17" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H17" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872679</v>
+        <v>68.08893453872668</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149082</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250301</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
         <v>862.6140377103484</v>
@@ -5530,13 +5530,13 @@
         <v>1131.245262923652</v>
       </c>
       <c r="O17" t="n">
-        <v>1382.739131455147</v>
+        <v>1382.739131455148</v>
       </c>
       <c r="P17" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q17" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R17" t="n">
         <v>1813.808303919614</v>
@@ -5545,22 +5545,22 @@
         <v>1813.808303919614</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1708.837806431887</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1708.837806431887</v>
       </c>
       <c r="V17" t="n">
-        <v>1813.808303919614</v>
+        <v>1708.837806431887</v>
       </c>
       <c r="W17" t="n">
-        <v>1417.416954219961</v>
+        <v>1312.446456732234</v>
       </c>
       <c r="X17" t="n">
-        <v>1005.696955387709</v>
+        <v>1312.446456732234</v>
       </c>
       <c r="Y17" t="n">
-        <v>1005.696955387709</v>
+        <v>1312.446456732234</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F18" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G18" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H18" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I18" t="n">
-        <v>75.26691519968661</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5526221910808</v>
+        <v>141.4213503255156</v>
       </c>
       <c r="K18" t="n">
-        <v>389.3212477623209</v>
+        <v>590.33890554562</v>
       </c>
       <c r="L18" t="n">
-        <v>565.9600985929699</v>
+        <v>766.977756376269</v>
       </c>
       <c r="M18" t="n">
-        <v>1014.877653813074</v>
+        <v>976.2524548572841</v>
       </c>
       <c r="N18" t="n">
-        <v>1232.032635645391</v>
+        <v>1193.4074366896</v>
       </c>
       <c r="O18" t="n">
-        <v>1427.076302632877</v>
+        <v>1388.451103677087</v>
       </c>
       <c r="P18" t="n">
-        <v>1580.47441747923</v>
+        <v>1541.84921852344</v>
       </c>
       <c r="Q18" t="n">
         <v>1674.905125453736</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1011.937267570567</v>
+        <v>380.1105034249158</v>
       </c>
       <c r="C19" t="n">
-        <v>839.9647044494834</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D19" t="n">
-        <v>676.6479315762541</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E19" t="n">
-        <v>510.4397257291076</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F19" t="n">
-        <v>338.577951503668</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I19" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J19" t="n">
-        <v>70.15038753583899</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K19" t="n">
-        <v>385.9171444939832</v>
+        <v>263.8742444497196</v>
       </c>
       <c r="L19" t="n">
-        <v>834.8346997140878</v>
+        <v>356.3700675499418</v>
       </c>
       <c r="M19" t="n">
-        <v>932.888047291707</v>
+        <v>805.2876227700463</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.886753383655</v>
+        <v>1254.205177990151</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q19" t="n">
         <v>1813.808303919614</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251775</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083372</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U19" t="n">
-        <v>1202.103236282633</v>
+        <v>1595.747008220892</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.103236282633</v>
+        <v>1314.035540828921</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.103236282633</v>
+        <v>1039.183137001434</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.103236282633</v>
+        <v>796.6192404472395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1202.103236282633</v>
+        <v>570.2764721369815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1312.446456732234</v>
+        <v>865.7688456352926</v>
       </c>
       <c r="C20" t="n">
-        <v>885.5457267455345</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="D20" t="n">
-        <v>462.2531059305347</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="E20" t="n">
-        <v>36.27616607839229</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="F20" t="n">
-        <v>36.27616607839229</v>
+        <v>438.8681156485927</v>
       </c>
       <c r="G20" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I20" t="n">
         <v>68.08893453872668</v>
@@ -5755,49 +5755,49 @@
         <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303105</v>
+        <v>598.9981372303101</v>
       </c>
       <c r="M20" t="n">
-        <v>862.6140377103482</v>
+        <v>862.6140377103479</v>
       </c>
       <c r="N20" t="n">
         <v>1131.245262923652</v>
       </c>
       <c r="O20" t="n">
-        <v>1382.739131455148</v>
+        <v>1382.739131455147</v>
       </c>
       <c r="P20" t="n">
-        <v>1591.776917090911</v>
+        <v>1591.77691709091</v>
       </c>
       <c r="Q20" t="n">
-        <v>1740.927517189221</v>
+        <v>1740.92751718922</v>
       </c>
       <c r="R20" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="S20" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642254</v>
       </c>
       <c r="T20" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U20" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V20" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W20" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.808303919614</v>
+        <v>866.0406199369111</v>
       </c>
       <c r="Y20" t="n">
-        <v>1732.294821023764</v>
+        <v>865.7688456352926</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>267.3889916489643</v>
       </c>
       <c r="F21" t="n">
-        <v>173.7431613318685</v>
+        <v>173.7431613318684</v>
       </c>
       <c r="G21" t="n">
-        <v>80.6241773300433</v>
+        <v>80.62417733004328</v>
       </c>
       <c r="H21" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I21" t="n">
-        <v>75.26691519968662</v>
+        <v>75.26691519968659</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5526221910804</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>389.3212477623206</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L21" t="n">
-        <v>565.9600985929696</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.877653813074</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N21" t="n">
-        <v>1232.03263564539</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O21" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P21" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.5505146247521</v>
+        <v>621.2325177970847</v>
       </c>
       <c r="C22" t="n">
-        <v>338.577951503668</v>
+        <v>449.2599546760007</v>
       </c>
       <c r="D22" t="n">
-        <v>338.577951503668</v>
+        <v>285.9431818027714</v>
       </c>
       <c r="E22" t="n">
-        <v>338.577951503668</v>
+        <v>285.9431818027714</v>
       </c>
       <c r="F22" t="n">
-        <v>338.577951503668</v>
+        <v>114.0814075773318</v>
       </c>
       <c r="G22" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="I22" t="n">
-        <v>36.27616607839229</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="J22" t="n">
-        <v>70.150387535839</v>
+        <v>148.0721041840598</v>
       </c>
       <c r="K22" t="n">
-        <v>138.6345353799612</v>
+        <v>216.556252028182</v>
       </c>
       <c r="L22" t="n">
-        <v>356.3700675499421</v>
+        <v>309.0520751284041</v>
       </c>
       <c r="M22" t="n">
-        <v>805.2876227700467</v>
+        <v>757.9696303485086</v>
       </c>
       <c r="N22" t="n">
-        <v>1254.205177990151</v>
+        <v>1206.887185568613</v>
       </c>
       <c r="O22" t="n">
-        <v>1703.122733210256</v>
+        <v>1655.804740788718</v>
       </c>
       <c r="P22" t="n">
-        <v>1773.863841351392</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R22" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S22" t="n">
-        <v>1657.330917251775</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T22" t="n">
-        <v>1417.340083083372</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="U22" t="n">
-        <v>1137.198381565876</v>
+        <v>1562.016618765574</v>
       </c>
       <c r="V22" t="n">
-        <v>855.4869141739052</v>
+        <v>1280.305151373603</v>
       </c>
       <c r="W22" t="n">
-        <v>580.6345103464182</v>
+        <v>1280.305151373603</v>
       </c>
       <c r="X22" t="n">
-        <v>580.6345103464182</v>
+        <v>1037.741254819408</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.5505146247521</v>
+        <v>811.3984865091504</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1326.142046398146</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="C23" t="n">
-        <v>899.241316411446</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="D23" t="n">
-        <v>899.241316411446</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="E23" t="n">
-        <v>473.2643765593036</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="F23" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="G23" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="H23" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I23" t="n">
-        <v>97.94653860982555</v>
+        <v>97.94653860982544</v>
       </c>
       <c r="J23" t="n">
-        <v>253.766998040493</v>
+        <v>253.7669980404929</v>
       </c>
       <c r="K23" t="n">
-        <v>495.5464836548665</v>
+        <v>495.5464836548663</v>
       </c>
       <c r="L23" t="n">
-        <v>801.4918514659961</v>
+        <v>801.4918514659958</v>
       </c>
       <c r="M23" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N23" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O23" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P23" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q23" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R23" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S23" t="n">
-        <v>2368.903403837482</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T23" t="n">
-        <v>2157.710409521929</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="U23" t="n">
-        <v>2157.710409521929</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="V23" t="n">
-        <v>2157.710409521929</v>
+        <v>2049.520322561436</v>
       </c>
       <c r="W23" t="n">
-        <v>2157.710409521929</v>
+        <v>1653.128972861783</v>
       </c>
       <c r="X23" t="n">
-        <v>1745.990410689676</v>
+        <v>1241.40897402953</v>
       </c>
       <c r="Y23" t="n">
-        <v>1745.990410689676</v>
+        <v>893.1127408508336</v>
       </c>
     </row>
     <row r="24">
@@ -6059,40 +6059,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G24" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H24" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I24" t="n">
-        <v>72.27152641483858</v>
+        <v>95.72883225925038</v>
       </c>
       <c r="J24" t="n">
-        <v>234.7717962367435</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K24" t="n">
-        <v>400.8650659897802</v>
+        <v>351.5698000416683</v>
       </c>
       <c r="L24" t="n">
-        <v>631.7253772930326</v>
+        <v>582.4301113449206</v>
       </c>
       <c r="M24" t="n">
-        <v>904.2739626845073</v>
+        <v>854.9786967363952</v>
       </c>
       <c r="N24" t="n">
-        <v>1186.377502936476</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O24" t="n">
-        <v>1440.836412147119</v>
+        <v>1391.541146199007</v>
       </c>
       <c r="P24" t="n">
-        <v>1641.920497017837</v>
+        <v>1592.625231069725</v>
       </c>
       <c r="Q24" t="n">
-        <v>1768.228013104546</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R24" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S24" t="n">
         <v>1757.952051605082</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>672.1650433236398</v>
+        <v>669.9688502111828</v>
       </c>
       <c r="C25" t="n">
-        <v>500.1924802025558</v>
+        <v>497.9962870900988</v>
       </c>
       <c r="D25" t="n">
-        <v>336.8757073293265</v>
+        <v>449.3849793529174</v>
       </c>
       <c r="E25" t="n">
-        <v>336.8757073293265</v>
+        <v>283.1767735057709</v>
       </c>
       <c r="F25" t="n">
-        <v>336.8757073293265</v>
+        <v>283.1767735057709</v>
       </c>
       <c r="G25" t="n">
-        <v>252.8464360739105</v>
+        <v>117.9171079290044</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9171079290045</v>
+        <v>117.9171079290044</v>
       </c>
       <c r="I25" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="J25" t="n">
-        <v>96.81607114682258</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K25" t="n">
         <v>189.623884947199</v>
       </c>
       <c r="L25" t="n">
-        <v>688.4089666699894</v>
+        <v>375.6527620966808</v>
       </c>
       <c r="M25" t="n">
-        <v>1232.815711148904</v>
+        <v>920.0595065755955</v>
       </c>
       <c r="N25" t="n">
-        <v>1759.884919819949</v>
+        <v>1447.12871524664</v>
       </c>
       <c r="O25" t="n">
-        <v>2253.472262265339</v>
+        <v>1940.71605769203</v>
       </c>
       <c r="P25" t="n">
-        <v>2349.534344732141</v>
+        <v>2349.534344732139</v>
       </c>
       <c r="Q25" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R25" t="n">
-        <v>2407.009737435188</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="S25" t="n">
-        <v>2407.009737435188</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="T25" t="n">
-        <v>2167.931598212276</v>
+        <v>2165.735405099819</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.801548119616</v>
+        <v>1885.605355007159</v>
       </c>
       <c r="V25" t="n">
-        <v>1606.090080727645</v>
+        <v>1603.893887615188</v>
       </c>
       <c r="W25" t="n">
-        <v>1331.237676900158</v>
+        <v>1329.041483787701</v>
       </c>
       <c r="X25" t="n">
-        <v>1088.673780345963</v>
+        <v>1086.477587233506</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.3310120357055</v>
+        <v>860.1348189232485</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1987.161373143658</v>
+        <v>1152.255486825019</v>
       </c>
       <c r="C26" t="n">
-        <v>1560.260643156958</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="D26" t="n">
-        <v>1136.968022341958</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="E26" t="n">
-        <v>710.991082489816</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="F26" t="n">
-        <v>285.8669006792162</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G26" t="n">
-        <v>48.14019474870376</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H26" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I26" t="n">
-        <v>97.94653860982561</v>
+        <v>97.94653860982552</v>
       </c>
       <c r="J26" t="n">
-        <v>253.7669980404931</v>
+        <v>253.766998040493</v>
       </c>
       <c r="K26" t="n">
-        <v>495.546483654867</v>
+        <v>495.5464836548664</v>
       </c>
       <c r="L26" t="n">
-        <v>801.4918514659967</v>
+        <v>801.491851465996</v>
       </c>
       <c r="M26" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N26" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O26" t="n">
-        <v>1829.10465858504</v>
+        <v>1829.104658585039</v>
       </c>
       <c r="P26" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q26" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R26" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S26" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="T26" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138085</v>
       </c>
       <c r="U26" t="n">
-        <v>2407.009737435188</v>
+        <v>2317.856250230675</v>
       </c>
       <c r="V26" t="n">
-        <v>2407.009737435188</v>
+        <v>1960.366835356924</v>
       </c>
       <c r="W26" t="n">
-        <v>2407.009737435188</v>
+        <v>1563.975485657271</v>
       </c>
       <c r="X26" t="n">
-        <v>2407.009737435188</v>
+        <v>1152.255486825019</v>
       </c>
       <c r="Y26" t="n">
-        <v>2407.009737435188</v>
+        <v>1152.255486825019</v>
       </c>
     </row>
     <row r="27">
@@ -6296,40 +6296,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G27" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H27" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="I27" t="n">
-        <v>72.27152641483858</v>
+        <v>72.27152641483855</v>
       </c>
       <c r="J27" t="n">
-        <v>234.7717962367435</v>
+        <v>162.0192244442198</v>
       </c>
       <c r="K27" t="n">
-        <v>400.8650659897802</v>
+        <v>328.1124941972564</v>
       </c>
       <c r="L27" t="n">
-        <v>631.7253772930326</v>
+        <v>558.9728055005088</v>
       </c>
       <c r="M27" t="n">
-        <v>904.2739626845073</v>
+        <v>831.5213908919834</v>
       </c>
       <c r="N27" t="n">
-        <v>1186.377502936476</v>
+        <v>1113.624931143952</v>
       </c>
       <c r="O27" t="n">
-        <v>1440.836412147119</v>
+        <v>1368.083840354595</v>
       </c>
       <c r="P27" t="n">
-        <v>1641.920497017837</v>
+        <v>1569.167925225313</v>
       </c>
       <c r="Q27" t="n">
-        <v>1768.228013104546</v>
+        <v>1768.228013104547</v>
       </c>
       <c r="R27" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S27" t="n">
         <v>1757.952051605082</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>618.4661095000843</v>
+        <v>1091.465417717576</v>
       </c>
       <c r="C28" t="n">
-        <v>446.4935463790002</v>
+        <v>919.4928545964924</v>
       </c>
       <c r="D28" t="n">
-        <v>283.1767735057709</v>
+        <v>756.1760817232631</v>
       </c>
       <c r="E28" t="n">
-        <v>283.1767735057709</v>
+        <v>589.9678758761166</v>
       </c>
       <c r="F28" t="n">
-        <v>283.1767735057709</v>
+        <v>418.106101650677</v>
       </c>
       <c r="G28" t="n">
-        <v>117.9171079290045</v>
+        <v>252.8464360739105</v>
       </c>
       <c r="H28" t="n">
-        <v>117.9171079290045</v>
+        <v>117.9171079290044</v>
       </c>
       <c r="I28" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870373</v>
       </c>
       <c r="J28" t="n">
-        <v>96.81607114682258</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K28" t="n">
-        <v>189.623884947199</v>
+        <v>252.0310209175399</v>
       </c>
       <c r="L28" t="n">
-        <v>689.634519717505</v>
+        <v>375.6527620966808</v>
       </c>
       <c r="M28" t="n">
-        <v>1234.04126419642</v>
+        <v>920.0595065755955</v>
       </c>
       <c r="N28" t="n">
-        <v>1761.110472867465</v>
+        <v>1447.12871524664</v>
       </c>
       <c r="O28" t="n">
-        <v>2253.472262265339</v>
+        <v>1940.71605769203</v>
       </c>
       <c r="P28" t="n">
-        <v>2349.534344732141</v>
+        <v>2349.534344732139</v>
       </c>
       <c r="Q28" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R28" t="n">
-        <v>2407.009737435188</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.254981002465</v>
+        <v>2404.813544322731</v>
       </c>
       <c r="T28" t="n">
-        <v>2015.176841779553</v>
+        <v>2305.520505214241</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.046791686894</v>
+        <v>2025.390455121582</v>
       </c>
       <c r="V28" t="n">
-        <v>1453.335324294922</v>
+        <v>2025.390455121582</v>
       </c>
       <c r="W28" t="n">
-        <v>1178.482920467435</v>
+        <v>1750.538051294095</v>
       </c>
       <c r="X28" t="n">
-        <v>1034.974846522408</v>
+        <v>1507.9741547399</v>
       </c>
       <c r="Y28" t="n">
-        <v>808.63207821215</v>
+        <v>1281.631386429642</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1749.434667213146</v>
+        <v>1323.457727361003</v>
       </c>
       <c r="C29" t="n">
-        <v>1322.533937226446</v>
+        <v>896.5569973743033</v>
       </c>
       <c r="D29" t="n">
-        <v>899.241316411446</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="E29" t="n">
-        <v>473.2643765593036</v>
+        <v>473.2643765593035</v>
       </c>
       <c r="F29" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="G29" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="H29" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I29" t="n">
         <v>97.94653860982544</v>
       </c>
       <c r="J29" t="n">
-        <v>253.7669980404935</v>
+        <v>253.7669980404929</v>
       </c>
       <c r="K29" t="n">
-        <v>495.546483654867</v>
+        <v>495.5464836548663</v>
       </c>
       <c r="L29" t="n">
-        <v>801.4918514659967</v>
+        <v>801.4918514659959</v>
       </c>
       <c r="M29" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N29" t="n">
         <v>1498.972179657088</v>
@@ -6481,34 +6481,34 @@
         <v>1829.10465858504</v>
       </c>
       <c r="P29" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q29" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R29" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S29" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="T29" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="U29" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="V29" t="n">
-        <v>2407.009737435188</v>
+        <v>1995.816898264335</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.283031504676</v>
+        <v>1995.816898264335</v>
       </c>
       <c r="X29" t="n">
-        <v>2169.283031504676</v>
+        <v>1584.096899432083</v>
       </c>
       <c r="Y29" t="n">
-        <v>2169.283031504676</v>
+        <v>1584.096899432083</v>
       </c>
     </row>
     <row r="30">
@@ -6533,40 +6533,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G30" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H30" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I30" t="n">
-        <v>72.27152641483858</v>
+        <v>95.7288322592504</v>
       </c>
       <c r="J30" t="n">
-        <v>162.0192244442198</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K30" t="n">
-        <v>328.1124941972565</v>
+        <v>351.5698000416683</v>
       </c>
       <c r="L30" t="n">
-        <v>558.9728055005089</v>
+        <v>582.4301113449206</v>
       </c>
       <c r="M30" t="n">
-        <v>831.5213908919836</v>
+        <v>854.9786967363952</v>
       </c>
       <c r="N30" t="n">
-        <v>1113.624931143953</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O30" t="n">
-        <v>1368.083840354595</v>
+        <v>1391.541146199007</v>
       </c>
       <c r="P30" t="n">
-        <v>1569.167925225313</v>
+        <v>1592.625231069725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1695.475441312023</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R30" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S30" t="n">
         <v>1757.952051605082</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>911.2431825465524</v>
+        <v>709.5762556029816</v>
       </c>
       <c r="C31" t="n">
-        <v>739.2706194254683</v>
+        <v>537.6036924818976</v>
       </c>
       <c r="D31" t="n">
-        <v>589.9678758761166</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="E31" t="n">
-        <v>589.9678758761166</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F31" t="n">
-        <v>418.106101650677</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G31" t="n">
-        <v>252.8464360739105</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H31" t="n">
-        <v>117.9171079290045</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I31" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J31" t="n">
-        <v>174.7377877950435</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K31" t="n">
-        <v>289.177607789198</v>
+        <v>189.623884947199</v>
       </c>
       <c r="L31" t="n">
-        <v>789.1882425595039</v>
+        <v>688.4089666699889</v>
       </c>
       <c r="M31" t="n">
-        <v>920.0595065755967</v>
+        <v>1232.815711148904</v>
       </c>
       <c r="N31" t="n">
-        <v>1447.128715246642</v>
+        <v>1759.884919819948</v>
       </c>
       <c r="O31" t="n">
-        <v>1940.716057692032</v>
+        <v>2253.472262265338</v>
       </c>
       <c r="P31" t="n">
-        <v>2349.534344732141</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q31" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R31" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S31" t="n">
-        <v>2407.009737435188</v>
+        <v>2254.254981002464</v>
       </c>
       <c r="T31" t="n">
-        <v>2407.009737435188</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="U31" t="n">
-        <v>2126.879687342529</v>
+        <v>1735.046791686893</v>
       </c>
       <c r="V31" t="n">
-        <v>1845.168219950558</v>
+        <v>1453.335324294922</v>
       </c>
       <c r="W31" t="n">
-        <v>1570.315816123071</v>
+        <v>1178.482920467434</v>
       </c>
       <c r="X31" t="n">
-        <v>1327.751919568876</v>
+        <v>935.9190239132396</v>
       </c>
       <c r="Y31" t="n">
-        <v>1101.409151258618</v>
+        <v>709.5762556029816</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1749.434667213146</v>
+        <v>1114.726861191225</v>
       </c>
       <c r="C32" t="n">
-        <v>1322.533937226446</v>
+        <v>1114.726861191225</v>
       </c>
       <c r="D32" t="n">
-        <v>899.241316411446</v>
+        <v>1114.726861191225</v>
       </c>
       <c r="E32" t="n">
-        <v>473.2643765593036</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="F32" t="n">
-        <v>48.14019474870376</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G32" t="n">
-        <v>48.14019474870376</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H32" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I32" t="n">
         <v>97.94653860982555</v>
@@ -6703,49 +6703,49 @@
         <v>253.766998040493</v>
       </c>
       <c r="K32" t="n">
-        <v>495.5464836548665</v>
+        <v>495.5464836548664</v>
       </c>
       <c r="L32" t="n">
-        <v>801.4918514659961</v>
+        <v>801.491851465996</v>
       </c>
       <c r="M32" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N32" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O32" t="n">
         <v>1829.10465858504</v>
       </c>
       <c r="P32" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q32" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R32" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S32" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="T32" t="n">
-        <v>2407.009737435188</v>
+        <v>2142.113318822533</v>
       </c>
       <c r="U32" t="n">
-        <v>2407.009737435188</v>
+        <v>1883.936274897229</v>
       </c>
       <c r="V32" t="n">
-        <v>2407.009737435188</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="W32" t="n">
-        <v>2407.009737435188</v>
+        <v>1526.446860023478</v>
       </c>
       <c r="X32" t="n">
-        <v>2407.009737435188</v>
+        <v>1114.726861191225</v>
       </c>
       <c r="Y32" t="n">
-        <v>2169.283031504676</v>
+        <v>1114.726861191225</v>
       </c>
     </row>
     <row r="33">
@@ -6770,40 +6770,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G33" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H33" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I33" t="n">
-        <v>72.27152641483858</v>
+        <v>95.7288322592504</v>
       </c>
       <c r="J33" t="n">
-        <v>162.0192244442198</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K33" t="n">
-        <v>328.1124941972565</v>
+        <v>351.5698000416683</v>
       </c>
       <c r="L33" t="n">
-        <v>558.9728055005089</v>
+        <v>582.4301113449206</v>
       </c>
       <c r="M33" t="n">
-        <v>831.5213908919836</v>
+        <v>854.9786967363952</v>
       </c>
       <c r="N33" t="n">
-        <v>1113.624931143953</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O33" t="n">
-        <v>1368.083840354595</v>
+        <v>1391.541146199007</v>
       </c>
       <c r="P33" t="n">
-        <v>1569.167925225313</v>
+        <v>1592.625231069725</v>
       </c>
       <c r="Q33" t="n">
-        <v>1695.475441312023</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R33" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S33" t="n">
         <v>1757.952051605082</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>672.1650433236398</v>
+        <v>672.1650433236389</v>
       </c>
       <c r="C34" t="n">
-        <v>500.1924802025558</v>
+        <v>500.1924802025549</v>
       </c>
       <c r="D34" t="n">
-        <v>419.0546419210569</v>
+        <v>500.1924802025549</v>
       </c>
       <c r="E34" t="n">
-        <v>252.8464360739105</v>
+        <v>455.0385477312105</v>
       </c>
       <c r="F34" t="n">
-        <v>252.8464360739105</v>
+        <v>283.1767735057709</v>
       </c>
       <c r="G34" t="n">
-        <v>252.8464360739105</v>
+        <v>117.9171079290045</v>
       </c>
       <c r="H34" t="n">
         <v>117.9171079290045</v>
       </c>
       <c r="I34" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J34" t="n">
-        <v>96.81607114682258</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K34" t="n">
-        <v>189.623884947199</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L34" t="n">
-        <v>689.634519717505</v>
+        <v>638.4499518885829</v>
       </c>
       <c r="M34" t="n">
-        <v>1234.04126419642</v>
+        <v>1182.856696367498</v>
       </c>
       <c r="N34" t="n">
-        <v>1761.110472867465</v>
+        <v>1709.925905038542</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.472262265339</v>
+        <v>1825.810923180729</v>
       </c>
       <c r="P34" t="n">
-        <v>2349.534344732141</v>
+        <v>2198.160847354241</v>
       </c>
       <c r="Q34" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R34" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S34" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T34" t="n">
-        <v>2167.931598212276</v>
+        <v>2167.931598212275</v>
       </c>
       <c r="U34" t="n">
         <v>1887.801548119616</v>
       </c>
       <c r="V34" t="n">
-        <v>1606.090080727645</v>
+        <v>1606.090080727644</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.237676900158</v>
+        <v>1331.237676900157</v>
       </c>
       <c r="X34" t="n">
         <v>1088.673780345963</v>
       </c>
       <c r="Y34" t="n">
-        <v>862.3310120357055</v>
+        <v>862.3310120357046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1987.161373143658</v>
+        <v>516.0628703027379</v>
       </c>
       <c r="C35" t="n">
-        <v>1560.260643156958</v>
+        <v>516.0628703027379</v>
       </c>
       <c r="D35" t="n">
-        <v>1136.968022341958</v>
+        <v>516.0628703027379</v>
       </c>
       <c r="E35" t="n">
-        <v>710.991082489816</v>
+        <v>516.0628703027379</v>
       </c>
       <c r="F35" t="n">
-        <v>285.8669006792162</v>
+        <v>516.0628703027379</v>
       </c>
       <c r="G35" t="n">
-        <v>48.14019474870376</v>
+        <v>113.9471263707277</v>
       </c>
       <c r="H35" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I35" t="n">
-        <v>97.94653860982567</v>
+        <v>97.94653860982521</v>
       </c>
       <c r="J35" t="n">
-        <v>253.766998040493</v>
+        <v>253.7669980404928</v>
       </c>
       <c r="K35" t="n">
-        <v>495.5464836548666</v>
+        <v>495.5464836548663</v>
       </c>
       <c r="L35" t="n">
-        <v>801.4918514659962</v>
+        <v>801.4918514659959</v>
       </c>
       <c r="M35" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N35" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O35" t="n">
         <v>1829.10465858504</v>
       </c>
       <c r="P35" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q35" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R35" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S35" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="T35" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="U35" t="n">
-        <v>2407.009737435188</v>
+        <v>2095.129269212781</v>
       </c>
       <c r="V35" t="n">
-        <v>2407.009737435188</v>
+        <v>1737.639854339031</v>
       </c>
       <c r="W35" t="n">
-        <v>2407.009737435188</v>
+        <v>1341.248504639378</v>
       </c>
       <c r="X35" t="n">
-        <v>2407.009737435188</v>
+        <v>1341.248504639378</v>
       </c>
       <c r="Y35" t="n">
-        <v>2407.009737435188</v>
+        <v>935.911234594268</v>
       </c>
     </row>
     <row r="36">
@@ -7007,40 +7007,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G36" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H36" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I36" t="n">
-        <v>72.27152641483858</v>
+        <v>72.27152641483855</v>
       </c>
       <c r="J36" t="n">
-        <v>162.0192244442198</v>
+        <v>234.7717962367439</v>
       </c>
       <c r="K36" t="n">
-        <v>328.1124941972565</v>
+        <v>400.8650659897805</v>
       </c>
       <c r="L36" t="n">
-        <v>558.9728055005089</v>
+        <v>631.7253772930329</v>
       </c>
       <c r="M36" t="n">
-        <v>831.5213908919836</v>
+        <v>904.2739626845075</v>
       </c>
       <c r="N36" t="n">
-        <v>1113.624931143953</v>
+        <v>1186.377502936477</v>
       </c>
       <c r="O36" t="n">
-        <v>1368.083840354595</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P36" t="n">
-        <v>1569.167925225313</v>
+        <v>1641.920497017837</v>
       </c>
       <c r="Q36" t="n">
-        <v>1695.475441312023</v>
+        <v>1768.228013104547</v>
       </c>
       <c r="R36" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S36" t="n">
         <v>1757.952051605082</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>672.1650433236398</v>
+        <v>745.753055201174</v>
       </c>
       <c r="C37" t="n">
-        <v>500.1924802025558</v>
+        <v>573.78049208009</v>
       </c>
       <c r="D37" t="n">
-        <v>336.8757073293265</v>
+        <v>573.78049208009</v>
       </c>
       <c r="E37" t="n">
-        <v>220.0019689741433</v>
+        <v>407.5722862329435</v>
       </c>
       <c r="F37" t="n">
-        <v>48.14019474870376</v>
+        <v>235.7105120075039</v>
       </c>
       <c r="G37" t="n">
-        <v>48.14019474870376</v>
+        <v>235.7105120075039</v>
       </c>
       <c r="H37" t="n">
-        <v>48.14019474870376</v>
+        <v>100.7811838625979</v>
       </c>
       <c r="I37" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J37" t="n">
-        <v>96.81607114682258</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K37" t="n">
-        <v>189.623884947199</v>
+        <v>267.5456015954198</v>
       </c>
       <c r="L37" t="n">
-        <v>688.4089666699894</v>
+        <v>767.5562363657257</v>
       </c>
       <c r="M37" t="n">
-        <v>1232.815711148904</v>
+        <v>898.4275003818185</v>
       </c>
       <c r="N37" t="n">
-        <v>1759.884919819949</v>
+        <v>1425.496709052863</v>
       </c>
       <c r="O37" t="n">
-        <v>2253.472262265339</v>
+        <v>1919.084051498253</v>
       </c>
       <c r="P37" t="n">
-        <v>2349.534344732141</v>
+        <v>2327.902338538363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R37" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S37" t="n">
-        <v>2407.009737435188</v>
+        <v>2254.254981002464</v>
       </c>
       <c r="T37" t="n">
-        <v>2167.931598212276</v>
+        <v>2015.176841779552</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.801548119616</v>
+        <v>1735.046791686893</v>
       </c>
       <c r="V37" t="n">
-        <v>1606.090080727645</v>
+        <v>1453.335324294922</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.237676900158</v>
+        <v>1178.482920467434</v>
       </c>
       <c r="X37" t="n">
-        <v>1088.673780345963</v>
+        <v>935.9190239132396</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.3310120357055</v>
+        <v>935.9190239132396</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>901.0178645875461</v>
+        <v>778.4216645758166</v>
       </c>
       <c r="C38" t="n">
-        <v>474.1171346008462</v>
+        <v>778.4216645758166</v>
       </c>
       <c r="D38" t="n">
-        <v>474.1171346008462</v>
+        <v>778.4216645758166</v>
       </c>
       <c r="E38" t="n">
-        <v>48.14019474870376</v>
+        <v>778.4216645758166</v>
       </c>
       <c r="F38" t="n">
-        <v>48.14019474870376</v>
+        <v>725.3547568383187</v>
       </c>
       <c r="G38" t="n">
-        <v>48.14019474870376</v>
+        <v>323.2390129063086</v>
       </c>
       <c r="H38" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I38" t="n">
-        <v>97.94653860982567</v>
+        <v>97.94653860982521</v>
       </c>
       <c r="J38" t="n">
-        <v>253.766998040493</v>
+        <v>253.7669980404928</v>
       </c>
       <c r="K38" t="n">
-        <v>495.5464836548666</v>
+        <v>495.5464836548663</v>
       </c>
       <c r="L38" t="n">
-        <v>801.4918514659962</v>
+        <v>801.4918514659959</v>
       </c>
       <c r="M38" t="n">
-        <v>1147.061306101887</v>
+        <v>1147.061306101886</v>
       </c>
       <c r="N38" t="n">
-        <v>1498.972179657088</v>
+        <v>1498.972179657087</v>
       </c>
       <c r="O38" t="n">
         <v>1829.10465858504</v>
       </c>
       <c r="P38" t="n">
-        <v>2105.258678825627</v>
+        <v>2105.258678825626</v>
       </c>
       <c r="Q38" t="n">
-        <v>2304.810775987987</v>
+        <v>2304.810775987986</v>
       </c>
       <c r="R38" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="S38" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="T38" t="n">
-        <v>2407.009737435188</v>
+        <v>2195.816743119634</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.832693509883</v>
+        <v>1937.63969919433</v>
       </c>
       <c r="V38" t="n">
-        <v>1791.343278636133</v>
+        <v>1580.150284320579</v>
       </c>
       <c r="W38" t="n">
-        <v>1394.95192893648</v>
+        <v>1183.758934620926</v>
       </c>
       <c r="X38" t="n">
-        <v>1394.95192893648</v>
+        <v>1183.758934620926</v>
       </c>
       <c r="Y38" t="n">
-        <v>989.6146588913701</v>
+        <v>778.4216645758166</v>
       </c>
     </row>
     <row r="39">
@@ -7244,40 +7244,40 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G39" t="n">
-        <v>90.02744705880212</v>
+        <v>90.0274470588021</v>
       </c>
       <c r="H39" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I39" t="n">
-        <v>72.27152641483858</v>
+        <v>95.7288322592504</v>
       </c>
       <c r="J39" t="n">
-        <v>162.0192244442198</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K39" t="n">
-        <v>328.1124941972565</v>
+        <v>351.5698000416683</v>
       </c>
       <c r="L39" t="n">
-        <v>558.9728055005089</v>
+        <v>582.4301113449206</v>
       </c>
       <c r="M39" t="n">
-        <v>831.5213908919836</v>
+        <v>854.9786967363952</v>
       </c>
       <c r="N39" t="n">
-        <v>1113.624931143953</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O39" t="n">
-        <v>1368.083840354595</v>
+        <v>1391.541146199007</v>
       </c>
       <c r="P39" t="n">
-        <v>1569.167925225313</v>
+        <v>1592.625231069725</v>
       </c>
       <c r="Q39" t="n">
-        <v>1695.475441312023</v>
+        <v>1718.932747156434</v>
       </c>
       <c r="R39" t="n">
-        <v>1817.180367468735</v>
+        <v>1817.180367468736</v>
       </c>
       <c r="S39" t="n">
         <v>1757.952051605082</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>517.2140937784613</v>
+        <v>517.2140937784604</v>
       </c>
       <c r="C40" t="n">
-        <v>345.2415306573773</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="D40" t="n">
-        <v>220.0019689741433</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="E40" t="n">
-        <v>220.0019689741433</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="F40" t="n">
-        <v>48.14019474870376</v>
+        <v>345.2415306573764</v>
       </c>
       <c r="G40" t="n">
-        <v>48.14019474870376</v>
+        <v>179.9818650806099</v>
       </c>
       <c r="H40" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="I40" t="n">
-        <v>48.14019474870376</v>
+        <v>48.14019474870374</v>
       </c>
       <c r="J40" t="n">
-        <v>96.81607114682258</v>
+        <v>96.81607114682254</v>
       </c>
       <c r="K40" t="n">
         <v>189.623884947199</v>
       </c>
       <c r="L40" t="n">
-        <v>689.634519717505</v>
+        <v>375.6527620966813</v>
       </c>
       <c r="M40" t="n">
-        <v>1234.04126419642</v>
+        <v>920.0595065755959</v>
       </c>
       <c r="N40" t="n">
-        <v>1761.110472867465</v>
+        <v>1447.128715246641</v>
       </c>
       <c r="O40" t="n">
-        <v>2253.472262265339</v>
+        <v>1940.716057692031</v>
       </c>
       <c r="P40" t="n">
-        <v>2349.534344732141</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q40" t="n">
-        <v>2407.009737435188</v>
+        <v>2407.009737435187</v>
       </c>
       <c r="R40" t="n">
         <v>2404.813544322732</v>
       </c>
       <c r="S40" t="n">
-        <v>2252.05878789001</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.980648667097</v>
+        <v>2012.980648667096</v>
       </c>
       <c r="U40" t="n">
-        <v>1732.850598574438</v>
+        <v>1732.850598574437</v>
       </c>
       <c r="V40" t="n">
-        <v>1451.139131182467</v>
+        <v>1451.139131182466</v>
       </c>
       <c r="W40" t="n">
-        <v>1176.28672735498</v>
+        <v>1176.286727354979</v>
       </c>
       <c r="X40" t="n">
-        <v>933.7228308007849</v>
+        <v>933.722830800784</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.3800624905269</v>
+        <v>707.380062490526</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2049.520322561438</v>
+        <v>1749.434667213146</v>
       </c>
       <c r="C41" t="n">
-        <v>1622.619592574738</v>
+        <v>1322.533937226446</v>
       </c>
       <c r="D41" t="n">
-        <v>1199.326971759738</v>
+        <v>899.241316411446</v>
       </c>
       <c r="E41" t="n">
-        <v>773.3500319075957</v>
+        <v>473.2643765593036</v>
       </c>
       <c r="F41" t="n">
-        <v>348.2258500969959</v>
+        <v>48.14019474870376</v>
       </c>
       <c r="G41" t="n">
-        <v>323.2390129063087</v>
+        <v>48.14019474870376</v>
       </c>
       <c r="H41" t="n">
         <v>48.14019474870376</v>
@@ -7438,25 +7438,25 @@
         <v>2407.009737435188</v>
       </c>
       <c r="S41" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="T41" t="n">
-        <v>2407.009737435188</v>
+        <v>2353.306313138086</v>
       </c>
       <c r="U41" t="n">
-        <v>2407.009737435188</v>
+        <v>2169.283031504676</v>
       </c>
       <c r="V41" t="n">
-        <v>2049.520322561438</v>
+        <v>2169.283031504676</v>
       </c>
       <c r="W41" t="n">
-        <v>2049.520322561438</v>
+        <v>2169.283031504676</v>
       </c>
       <c r="X41" t="n">
-        <v>2049.520322561438</v>
+        <v>2169.283031504676</v>
       </c>
       <c r="Y41" t="n">
-        <v>2049.520322561438</v>
+        <v>2169.283031504676</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G42" t="n">
-        <v>90.02744705880212</v>
+        <v>90.02744705880211</v>
       </c>
       <c r="H42" t="n">
         <v>48.14019474870376</v>
@@ -7490,28 +7490,28 @@
         <v>72.27152641483858</v>
       </c>
       <c r="J42" t="n">
-        <v>162.0192244442198</v>
+        <v>234.7717962367435</v>
       </c>
       <c r="K42" t="n">
-        <v>328.1124941972565</v>
+        <v>400.8650659897802</v>
       </c>
       <c r="L42" t="n">
-        <v>558.9728055005089</v>
+        <v>631.7253772930326</v>
       </c>
       <c r="M42" t="n">
-        <v>831.5213908919836</v>
+        <v>904.2739626845073</v>
       </c>
       <c r="N42" t="n">
-        <v>1113.624931143953</v>
+        <v>1186.377502936476</v>
       </c>
       <c r="O42" t="n">
-        <v>1368.083840354595</v>
+        <v>1440.836412147119</v>
       </c>
       <c r="P42" t="n">
-        <v>1569.167925225313</v>
+        <v>1641.920497017837</v>
       </c>
       <c r="Q42" t="n">
-        <v>1695.475441312023</v>
+        <v>1768.228013104546</v>
       </c>
       <c r="R42" t="n">
         <v>1817.180367468735</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>672.1650433236398</v>
+        <v>758.4884261138288</v>
       </c>
       <c r="C43" t="n">
-        <v>500.1924802025558</v>
+        <v>754.2331890197258</v>
       </c>
       <c r="D43" t="n">
-        <v>500.1924802025558</v>
+        <v>590.9164161464965</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9842743554093</v>
+        <v>424.7082102993501</v>
       </c>
       <c r="F43" t="n">
         <v>252.8464360739105</v>
@@ -7569,25 +7569,25 @@
         <v>48.14019474870376</v>
       </c>
       <c r="J43" t="n">
-        <v>96.81607114682258</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K43" t="n">
-        <v>189.623884947199</v>
+        <v>289.1776077891975</v>
       </c>
       <c r="L43" t="n">
-        <v>689.634519717505</v>
+        <v>789.1882425595035</v>
       </c>
       <c r="M43" t="n">
-        <v>1234.04126419642</v>
+        <v>920.0595065755963</v>
       </c>
       <c r="N43" t="n">
-        <v>1761.110472867465</v>
+        <v>1447.128715246641</v>
       </c>
       <c r="O43" t="n">
-        <v>2253.472262265339</v>
+        <v>1940.716057692031</v>
       </c>
       <c r="P43" t="n">
-        <v>2349.534344732141</v>
+        <v>2349.53434473214</v>
       </c>
       <c r="Q43" t="n">
         <v>2407.009737435188</v>
@@ -7596,25 +7596,25 @@
         <v>2407.009737435188</v>
       </c>
       <c r="S43" t="n">
-        <v>2407.009737435188</v>
+        <v>2254.254981002465</v>
       </c>
       <c r="T43" t="n">
-        <v>2167.931598212276</v>
+        <v>2254.254981002465</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.801548119616</v>
+        <v>1974.124930909805</v>
       </c>
       <c r="V43" t="n">
-        <v>1606.090080727645</v>
+        <v>1692.413463517834</v>
       </c>
       <c r="W43" t="n">
-        <v>1331.237676900158</v>
+        <v>1417.561059690347</v>
       </c>
       <c r="X43" t="n">
-        <v>1088.673780345963</v>
+        <v>1174.997163136152</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.3310120357055</v>
+        <v>948.6543948258945</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.5606097380019</v>
+        <v>725.3547568383188</v>
       </c>
       <c r="C44" t="n">
-        <v>821.5606097380019</v>
+        <v>725.3547568383188</v>
       </c>
       <c r="D44" t="n">
-        <v>398.2679889230021</v>
+        <v>725.3547568383188</v>
       </c>
       <c r="E44" t="n">
-        <v>323.2390129063087</v>
+        <v>725.3547568383188</v>
       </c>
       <c r="F44" t="n">
-        <v>323.2390129063087</v>
+        <v>725.3547568383188</v>
       </c>
       <c r="G44" t="n">
         <v>323.2390129063087</v>
@@ -7645,7 +7645,7 @@
         <v>48.14019474870376</v>
       </c>
       <c r="I44" t="n">
-        <v>97.94653860982557</v>
+        <v>97.94653860982555</v>
       </c>
       <c r="J44" t="n">
         <v>253.766998040493</v>
@@ -7681,19 +7681,19 @@
         <v>2407.009737435188</v>
       </c>
       <c r="U44" t="n">
-        <v>2407.009737435188</v>
+        <v>2296.292790289085</v>
       </c>
       <c r="V44" t="n">
-        <v>2049.520322561438</v>
+        <v>1938.803375415334</v>
       </c>
       <c r="W44" t="n">
-        <v>1653.128972861785</v>
+        <v>1542.412025715681</v>
       </c>
       <c r="X44" t="n">
-        <v>1241.408974029532</v>
+        <v>1130.692026883429</v>
       </c>
       <c r="Y44" t="n">
-        <v>1241.408974029532</v>
+        <v>725.3547568383188</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>182.8916385816654</v>
       </c>
       <c r="G45" t="n">
-        <v>90.02744705880212</v>
+        <v>90.02744705880211</v>
       </c>
       <c r="H45" t="n">
         <v>48.14019474870376</v>
       </c>
       <c r="I45" t="n">
-        <v>72.27152641483858</v>
+        <v>95.72883225925042</v>
       </c>
       <c r="J45" t="n">
-        <v>234.7717962367435</v>
+        <v>185.4765302886316</v>
       </c>
       <c r="K45" t="n">
-        <v>400.8650659897802</v>
+        <v>351.5698000416684</v>
       </c>
       <c r="L45" t="n">
-        <v>631.7253772930326</v>
+        <v>582.4301113449208</v>
       </c>
       <c r="M45" t="n">
-        <v>904.2739626845073</v>
+        <v>854.9786967363955</v>
       </c>
       <c r="N45" t="n">
-        <v>1186.377502936476</v>
+        <v>1137.082236988364</v>
       </c>
       <c r="O45" t="n">
-        <v>1440.836412147119</v>
+        <v>1391.541146199007</v>
       </c>
       <c r="P45" t="n">
-        <v>1641.920497017837</v>
+        <v>1592.625231069725</v>
       </c>
       <c r="Q45" t="n">
-        <v>1768.228013104546</v>
+        <v>1718.932747156435</v>
       </c>
       <c r="R45" t="n">
         <v>1817.180367468735</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>596.6807734204341</v>
+        <v>1021.688504537276</v>
       </c>
       <c r="C46" t="n">
-        <v>424.7082102993501</v>
+        <v>849.7159414161916</v>
       </c>
       <c r="D46" t="n">
-        <v>424.7082102993501</v>
+        <v>686.3991685429623</v>
       </c>
       <c r="E46" t="n">
-        <v>424.7082102993501</v>
+        <v>520.1909626958159</v>
       </c>
       <c r="F46" t="n">
-        <v>252.8464360739105</v>
+        <v>348.3291884703763</v>
       </c>
       <c r="G46" t="n">
-        <v>252.8464360739105</v>
+        <v>183.0695228936098</v>
       </c>
       <c r="H46" t="n">
-        <v>117.9171079290045</v>
+        <v>48.14019474870376</v>
       </c>
       <c r="I46" t="n">
         <v>48.14019474870376</v>
       </c>
       <c r="J46" t="n">
-        <v>174.7377877950435</v>
+        <v>174.7377877950434</v>
       </c>
       <c r="K46" t="n">
-        <v>267.5456015954199</v>
+        <v>514.8282107094419</v>
       </c>
       <c r="L46" t="n">
-        <v>391.1673427745609</v>
+        <v>1014.838845479748</v>
       </c>
       <c r="M46" t="n">
-        <v>935.5740872534756</v>
+        <v>1166.718932039577</v>
       </c>
       <c r="N46" t="n">
-        <v>1462.64329592452</v>
+        <v>1295.755217868742</v>
       </c>
       <c r="O46" t="n">
-        <v>1956.23063836991</v>
+        <v>1789.342560314132</v>
       </c>
       <c r="P46" t="n">
         <v>2198.160847354241</v>
@@ -7833,25 +7833,25 @@
         <v>2404.813544322732</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.05878789001</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="T46" t="n">
-        <v>2012.980648667097</v>
+        <v>2252.058787890009</v>
       </c>
       <c r="U46" t="n">
-        <v>1732.850598574438</v>
+        <v>1971.92873779735</v>
       </c>
       <c r="V46" t="n">
-        <v>1451.139131182467</v>
+        <v>1690.217270405379</v>
       </c>
       <c r="W46" t="n">
-        <v>1176.28672735498</v>
+        <v>1415.364866577892</v>
       </c>
       <c r="X46" t="n">
-        <v>933.7228308007849</v>
+        <v>1211.854473249341</v>
       </c>
       <c r="Y46" t="n">
-        <v>707.3800624905269</v>
+        <v>1211.854473249341</v>
       </c>
     </row>
   </sheetData>
@@ -8455,13 +8455,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09296117214526</v>
+        <v>14.09296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M8" t="n">
-        <v>7.515868967310212</v>
+        <v>7.515868967310215</v>
       </c>
       <c r="N8" t="n">
         <v>6.880166552921242</v>
@@ -8473,7 +8473,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q8" t="n">
-        <v>17.72668497534603</v>
+        <v>17.72668497534604</v>
       </c>
       <c r="R8" t="n">
         <v>24.33067662398352</v>
@@ -8534,7 +8534,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K9" t="n">
-        <v>7.679584047590229</v>
+        <v>7.679584047590231</v>
       </c>
       <c r="L9" t="n">
         <v>2.722701059689193</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.483625009529543</v>
+        <v>1.483625009529547</v>
       </c>
       <c r="P9" t="n">
         <v>4.364096701700124</v>
@@ -8625,7 +8625,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O10" t="n">
-        <v>11.69730019489984</v>
+        <v>11.69730019489985</v>
       </c>
       <c r="P10" t="n">
         <v>13.13791998612571</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.5903457215982</v>
+        <v>70.37539003541895</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>50.95854331539968</v>
       </c>
       <c r="M13" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N13" t="n">
-        <v>355.4735849779359</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.40031649232017</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>152.9025226039384</v>
@@ -9005,10 +9005,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>113.8815976201635</v>
       </c>
       <c r="K15" t="n">
-        <v>70.37539003541775</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>358.0675224703016</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>360.0219516362449</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N16" t="n">
-        <v>160.4493223709198</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O16" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>123.3649210763285</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>326.4130602513782</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>242.063491655646</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>39.01535248059635</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>47.79595194094711</v>
       </c>
       <c r="L19" t="n">
-        <v>360.0219516362449</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O19" t="n">
-        <v>276.9562095262309</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>123.364921076328</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>242.0634916556459</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>126.5047566361199</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>354.408290547965</v>
+        <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>355.473584977936</v>
+        <v>355.4735849779359</v>
       </c>
       <c r="O22" t="n">
-        <v>366.2873004017982</v>
+        <v>366.2873004017981</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>47.79595194094702</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>73.48744625507443</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>49.79319792738616</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>378.9528692360094</v>
+        <v>63.03751108115242</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9813,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>73.48744625507443</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>73.48744625507487</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>63.03751108115242</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
@@ -10047,10 +10047,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>380.2795669249371</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>73.48744625507442</v>
+        <v>49.79319792738616</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>21.85051130684653</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>378.9528692360091</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
@@ -10287,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.48744625507442</v>
+        <v>49.79319792738616</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,13 +10506,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10521,13 +10521,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>380.2795669249371</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>279.078627986576</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>73.48744625507487</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>73.48744625507442</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>378.9528692360094</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>21.85051130684563</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>73.48744625507442</v>
+        <v>49.79319792738616</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>380.1908016072373</v>
+        <v>63.03751108115287</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -10995,10 +10995,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>380.2795669249371</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>73.48744625507443</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.48744625507442</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>21.85051130684609</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>380.2795669249371</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>73.48744625507443</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.79319792738569</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,22 +11457,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>21.22103287246125</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3415419368986</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
         <v>152.9025226039384</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.125302283796259</v>
+        <v>0.1253022837962369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>360.6095749674495</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1448086517629</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>283.2487332221187</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>65.77845082652979</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>206.7579447508922</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>398.5660300744983</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458682</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.632988972596</v>
+        <v>22.03785335939318</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>297.6147165260743</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>83.39808482928825</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>75.43872475250879</v>
+        <v>18.35631196405406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578063</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>297.6147165260742</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23785,7 +23785,7 @@
         <v>63.90941067458682</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>107.2240161389136</v>
       </c>
       <c r="U17" t="n">
         <v>255.632988972596</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23940,25 +23940,25 @@
         <v>11.68284247578063</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>64.25580616958905</v>
+        <v>61.45960176058603</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>277.176001558223</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.90941067458681</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.585549277767</v>
+        <v>401.0148407860563</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>86.79135319782293</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250878</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.68284247578062</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.6961848627059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.44111979240108</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.0810643723971</v>
       </c>
       <c r="U23" t="n">
         <v>255.5952734860514</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>56.47062649774904</v>
       </c>
     </row>
     <row r="24">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.5584104846874</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>80.41809037813702</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>2.174231181331159</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>151.2272088683957</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>162.7451476214827</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>53.16639005413046</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U26" t="n">
-        <v>255.5952734860514</v>
+        <v>220.4997112077154</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.174231181331159</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.2272088683957</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.387249113278</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>98.06526438307571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>157.6171002982461</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>53.16639005413046</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.0810643723971</v>
@@ -24739,13 +24739,13 @@
         <v>255.5952734860514</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>157.0779973314494</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>13.87388903063882</v>
+        <v>144.4450026562761</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.174231181331159</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S31" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.6873578306832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>36.23878714424336</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>53.16639005413046</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>165.9344584734514</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>81.35714524581316</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>119.8437306420441</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.580034863457</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.174231181331159</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S34" t="n">
         <v>151.2272088683957</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>162.7451476214827</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>272.3478299760288</v>
+        <v>207.1989676702251</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>53.16639005413046</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U35" t="n">
-        <v>255.5952734860514</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>48.84112281704367</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>163.6070689209988</v>
       </c>
       <c r="H37" t="n">
-        <v>133.580034863457</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>69.07914404849768</v>
+        <v>16.96456482574253</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.174231181331159</v>
+        <v>2.174231181331166</v>
       </c>
       <c r="S37" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.939054287829</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>368.3367013323708</v>
       </c>
       <c r="G38" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>272.3478299760288</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>53.16639005413046</v>
+        <v>53.16639005413047</v>
       </c>
       <c r="T38" t="n">
-        <v>209.0810643723971</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>37.69643907809534</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>133.580034863457</v>
+        <v>3.056781234869874</v>
       </c>
       <c r="I40" t="n">
-        <v>69.07914404849768</v>
+        <v>69.0791440484977</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>373.3576176739097</v>
+        <v>398.09458649269</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>272.3478299760288</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>53.16639005413046</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.0810643723971</v>
       </c>
       <c r="U41" t="n">
-        <v>255.5952734860514</v>
+        <v>73.41222466897494</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.0401527667112</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>89.8166965845014</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.6070689209988</v>
@@ -25836,10 +25836,10 @@
         <v>2.174231181331159</v>
       </c>
       <c r="S43" t="n">
-        <v>151.2272088683957</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.6873578306832</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>347.4384841970945</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.09458649269</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.0810643723971</v>
       </c>
       <c r="U44" t="n">
-        <v>255.5952734860514</v>
+        <v>145.9854958114099</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>78.67201284555308</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6070689209988</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.07914404849768</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.6873578306832</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>38.662968193388</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>378815.6228581934</v>
+        <v>378815.6228581933</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>378815.6228581934</v>
+        <v>378815.6228581933</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242884</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242884</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242885</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242885</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242885</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242885</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448114.1137242886</v>
+        <v>448114.1137242885</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329910.3965622639</v>
+        <v>329910.396562264</v>
       </c>
       <c r="C2" t="n">
         <v>329917.4164854039</v>
@@ -26325,7 +26325,7 @@
         <v>176834.6750523112</v>
       </c>
       <c r="F2" t="n">
-        <v>176834.6750523113</v>
+        <v>176834.6750523114</v>
       </c>
       <c r="G2" t="n">
         <v>176834.6750523113</v>
@@ -26343,10 +26343,10 @@
         <v>212260.4298244346</v>
       </c>
       <c r="L2" t="n">
+        <v>212260.4298244346</v>
+      </c>
+      <c r="M2" t="n">
         <v>212260.4298244347</v>
-      </c>
-      <c r="M2" t="n">
-        <v>212260.4298244346</v>
       </c>
       <c r="N2" t="n">
         <v>212260.4298244347</v>
@@ -26371,7 +26371,7 @@
         <v>34741.06549511107</v>
       </c>
       <c r="D3" t="n">
-        <v>3620.625146095259</v>
+        <v>3620.625146095253</v>
       </c>
       <c r="E3" t="n">
         <v>447005.9016701139</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>113002.0711424959</v>
+        <v>113002.0711424958</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26444,7 +26444,7 @@
         <v>14848.45820181069</v>
       </c>
       <c r="K4" t="n">
-        <v>14848.45820181069</v>
+        <v>14848.4582018107</v>
       </c>
       <c r="L4" t="n">
         <v>14848.45820181069</v>
@@ -26481,37 +26481,37 @@
         <v>36949.30081304155</v>
       </c>
       <c r="F5" t="n">
-        <v>36949.30081304156</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="G5" t="n">
         <v>36949.30081304156</v>
       </c>
       <c r="H5" t="n">
-        <v>36949.30081304157</v>
+        <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572915</v>
       </c>
       <c r="J5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572915</v>
       </c>
       <c r="K5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572916</v>
       </c>
       <c r="L5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572916</v>
       </c>
       <c r="M5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572916</v>
       </c>
       <c r="N5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572916</v>
       </c>
       <c r="O5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572917</v>
       </c>
       <c r="P5" t="n">
-        <v>48522.48328572918</v>
+        <v>48522.48328572917</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22529.17879087426</v>
+        <v>-22550.89243237054</v>
       </c>
       <c r="C6" t="n">
-        <v>-49671.20734597201</v>
+        <v>-49692.89046606339</v>
       </c>
       <c r="D6" t="n">
-        <v>-17743.80288860881</v>
+        <v>-17765.48262657399</v>
       </c>
       <c r="E6" t="n">
-        <v>-324971.5477064403</v>
+        <v>-325658.8079631972</v>
       </c>
       <c r="F6" t="n">
-        <v>122034.3539636737</v>
+        <v>121347.0937069168</v>
       </c>
       <c r="G6" t="n">
-        <v>122034.3539636737</v>
+        <v>121347.0937069167</v>
       </c>
       <c r="H6" t="n">
-        <v>122034.3539636737</v>
+        <v>121347.0937069168</v>
       </c>
       <c r="I6" t="n">
-        <v>21177.23590172274</v>
+        <v>20644.00066571412</v>
       </c>
       <c r="J6" t="n">
-        <v>148889.4883368947</v>
+        <v>148356.2531008862</v>
       </c>
       <c r="K6" t="n">
-        <v>148889.4883368948</v>
+        <v>148356.2531008861</v>
       </c>
       <c r="L6" t="n">
-        <v>148889.4883368948</v>
+        <v>148356.2531008862</v>
       </c>
       <c r="M6" t="n">
-        <v>35887.41719439889</v>
+        <v>35354.18195839039</v>
       </c>
       <c r="N6" t="n">
-        <v>148889.4883368948</v>
+        <v>148356.2531008862</v>
       </c>
       <c r="O6" t="n">
-        <v>148889.4883368948</v>
+        <v>148356.2531008862</v>
       </c>
       <c r="P6" t="n">
-        <v>148889.4883368949</v>
+        <v>148356.2531008863</v>
       </c>
     </row>
   </sheetData>
@@ -26749,31 +26749,31 @@
         <v>430.248375846946</v>
       </c>
       <c r="F3" t="n">
-        <v>430.2483758469461</v>
+        <v>430.248375846946</v>
       </c>
       <c r="G3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
-        <v>430.2483758469463</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="J3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="K3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="L3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="M3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="N3" t="n">
-        <v>547.5199668217577</v>
+        <v>547.5199668217576</v>
       </c>
       <c r="O3" t="n">
         <v>547.5199668217577</v>
@@ -26801,37 +26801,37 @@
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="H4" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587967</v>
       </c>
       <c r="J4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587967</v>
       </c>
       <c r="K4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="L4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="M4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="N4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587968</v>
       </c>
       <c r="O4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587969</v>
       </c>
       <c r="P4" t="n">
-        <v>601.752434358797</v>
+        <v>601.7524343587969</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>38.15175619547406</v>
       </c>
       <c r="D3" t="n">
-        <v>4.227657588613987</v>
+        <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
         <v>387.868962062858</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.3003583788934</v>
+        <v>148.3003583788932</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799032</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31521,13 +31521,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I8" t="n">
-        <v>6.568170250898712</v>
+        <v>6.568170250898711</v>
       </c>
       <c r="J8" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K8" t="n">
-        <v>21.67163962266408</v>
+        <v>21.67163962266407</v>
       </c>
       <c r="L8" t="n">
         <v>26.88558528937678</v>
@@ -31551,7 +31551,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S8" t="n">
-        <v>3.882295041627765</v>
+        <v>3.882295041627764</v>
       </c>
       <c r="T8" t="n">
         <v>0.7457924978486244</v>
@@ -31597,7 +31597,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8803723504958668</v>
+        <v>0.8803723504958667</v>
       </c>
       <c r="I9" t="n">
         <v>3.138475454765011</v>
@@ -31618,7 +31618,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>21.68826471269268</v>
+        <v>21.68826471269267</v>
       </c>
       <c r="P9" t="n">
         <v>17.40674450312854</v>
@@ -31633,10 +31633,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3674215213922349</v>
+        <v>0.3674215213922348</v>
       </c>
       <c r="U9" t="n">
-        <v>0.005997086856238876</v>
+        <v>0.005997086856238875</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,13 +31700,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P10" t="n">
-        <v>9.242880671860771</v>
+        <v>9.242880671860769</v>
       </c>
       <c r="Q10" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R10" t="n">
-        <v>3.436206238952449</v>
+        <v>3.436206238952448</v>
       </c>
       <c r="S10" t="n">
         <v>1.331825184001586</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.729641711947521</v>
+        <v>1.72964171194752</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
       </c>
       <c r="I14" t="n">
-        <v>66.68201209985686</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J14" t="n">
         <v>146.801178249406</v>
@@ -32010,25 +32010,25 @@
         <v>303.7099502530053</v>
       </c>
       <c r="N14" t="n">
-        <v>308.6242947670763</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.4251699938981</v>
+        <v>291.425169993898</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R14" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S14" t="n">
-        <v>39.41421051100417</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050277</v>
+        <v>7.571506594050274</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651294</v>
+        <v>0.9254399027651292</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179016</v>
+        <v>8.937801166179012</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432573</v>
+        <v>31.86273349432572</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659498</v>
+        <v>87.43377607659497</v>
       </c>
       <c r="K15" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L15" t="n">
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365856</v>
+        <v>234.4853648365855</v>
       </c>
       <c r="N15" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O15" t="n">
         <v>220.1856947600876</v>
@@ -32101,16 +32101,16 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4584529102771</v>
+        <v>57.45845291027708</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
       </c>
       <c r="T15" t="n">
-        <v>3.730172239654183</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928486</v>
+        <v>0.06088420412928484</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371159</v>
+        <v>0.7758577269371157</v>
       </c>
       <c r="H16" t="n">
-        <v>6.898080517677272</v>
+        <v>6.89808051767727</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
       </c>
       <c r="J16" t="n">
-        <v>54.85314129445409</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596672</v>
+        <v>90.14056136596669</v>
       </c>
       <c r="L16" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M16" t="n">
         <v>121.6192253234244</v>
@@ -32174,22 +32174,22 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.8364654470126</v>
+        <v>93.83646544701257</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288887</v>
+        <v>64.96750475288884</v>
       </c>
       <c r="R16" t="n">
-        <v>34.88538470391795</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S16" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640403</v>
+        <v>3.315028469640402</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838819</v>
+        <v>0.04231951237838818</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.729641711947521</v>
       </c>
       <c r="H20" t="n">
-        <v>17.71369318248256</v>
+        <v>17.71369318248255</v>
       </c>
       <c r="I20" t="n">
-        <v>66.68201209985688</v>
+        <v>66.68201209985685</v>
       </c>
       <c r="J20" t="n">
-        <v>146.8011782494061</v>
+        <v>146.801178249406</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0169119161447</v>
+        <v>220.0169119161446</v>
       </c>
       <c r="L20" t="n">
-        <v>272.9504344581587</v>
+        <v>272.9504344581586</v>
       </c>
       <c r="M20" t="n">
-        <v>303.7099502530054</v>
+        <v>303.7099502530053</v>
       </c>
       <c r="N20" t="n">
-        <v>308.6242947670764</v>
+        <v>308.6242947670762</v>
       </c>
       <c r="O20" t="n">
-        <v>291.4251699938982</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P20" t="n">
-        <v>248.7246402301937</v>
+        <v>248.7246402301936</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.781846421073</v>
+        <v>186.7818464210729</v>
       </c>
       <c r="R20" t="n">
-        <v>108.6496061881236</v>
+        <v>108.6496061881235</v>
       </c>
       <c r="S20" t="n">
-        <v>39.41421051100419</v>
+        <v>39.41421051100416</v>
       </c>
       <c r="T20" t="n">
-        <v>7.571506594050279</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1383713369558017</v>
+        <v>0.1383713369558016</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9254399027651298</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H21" t="n">
-        <v>8.937801166179018</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I21" t="n">
-        <v>31.86273349432574</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J21" t="n">
-        <v>87.43377607659501</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K21" t="n">
-        <v>149.4382495618587</v>
+        <v>149.4382495618586</v>
       </c>
       <c r="L21" t="n">
-        <v>200.9381683613498</v>
+        <v>200.9381683613497</v>
       </c>
       <c r="M21" t="n">
-        <v>234.4853648365857</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N21" t="n">
-        <v>240.6914947108308</v>
+        <v>240.6914947108307</v>
       </c>
       <c r="O21" t="n">
-        <v>220.1856947600877</v>
+        <v>220.1856947600876</v>
       </c>
       <c r="P21" t="n">
-        <v>176.7184319587203</v>
+        <v>176.7184319587202</v>
       </c>
       <c r="Q21" t="n">
         <v>118.1315917985804</v>
       </c>
       <c r="R21" t="n">
-        <v>57.45845291027711</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S21" t="n">
-        <v>17.18964029916808</v>
+        <v>17.18964029916807</v>
       </c>
       <c r="T21" t="n">
-        <v>3.730172239654184</v>
+        <v>3.730172239654182</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06088420412928487</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7758577269371161</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H22" t="n">
-        <v>6.898080517677274</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I22" t="n">
-        <v>23.33215782461801</v>
+        <v>23.332157824618</v>
       </c>
       <c r="J22" t="n">
-        <v>54.8531412944541</v>
+        <v>54.85314129445408</v>
       </c>
       <c r="K22" t="n">
-        <v>90.14056136596675</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L22" t="n">
-        <v>115.34888423936</v>
+        <v>115.3488842393599</v>
       </c>
       <c r="M22" t="n">
-        <v>121.6192253234245</v>
+        <v>121.6192253234244</v>
       </c>
       <c r="N22" t="n">
         <v>118.727391977568</v>
       </c>
       <c r="O22" t="n">
-        <v>109.6639630765299</v>
+        <v>109.6639630765298</v>
       </c>
       <c r="P22" t="n">
-        <v>93.83646544701263</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.96750475288889</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R22" t="n">
-        <v>34.88538470391796</v>
+        <v>34.88538470391794</v>
       </c>
       <c r="S22" t="n">
-        <v>13.52108420489501</v>
+        <v>13.521084204895</v>
       </c>
       <c r="T22" t="n">
-        <v>3.315028469640404</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0423195123783882</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H23" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I23" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J23" t="n">
         <v>186.8143629509072</v>
@@ -32718,16 +32718,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M23" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N23" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O23" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P23" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q23" t="n">
         <v>237.6924495160727</v>
@@ -32736,10 +32736,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S23" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T23" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U23" t="n">
         <v>0.1760868235004646</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H24" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I24" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J24" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K24" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L24" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M24" t="n">
         <v>298.3983819178579</v>
@@ -32812,16 +32812,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R24" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S24" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T24" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H25" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I25" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J25" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K25" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L25" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M25" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N25" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O25" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P25" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R25" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S25" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T25" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H26" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I26" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J26" t="n">
         <v>186.8143629509072</v>
@@ -32955,16 +32955,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M26" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N26" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O26" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P26" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q26" t="n">
         <v>237.6924495160727</v>
@@ -32973,10 +32973,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S26" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T26" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U26" t="n">
         <v>0.1760868235004646</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H27" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I27" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J27" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K27" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L27" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M27" t="n">
         <v>298.3983819178579</v>
@@ -33049,16 +33049,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R27" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S27" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T27" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H28" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I28" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J28" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K28" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L28" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M28" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N28" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O28" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P28" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R28" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S28" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T28" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H29" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I29" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J29" t="n">
         <v>186.8143629509072</v>
@@ -33192,16 +33192,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M29" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N29" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O29" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P29" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q29" t="n">
         <v>237.6924495160727</v>
@@ -33210,10 +33210,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S29" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T29" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U29" t="n">
         <v>0.1760868235004646</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H30" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I30" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J30" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K30" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L30" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M30" t="n">
         <v>298.3983819178579</v>
@@ -33286,16 +33286,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R30" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S30" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T30" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H31" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I31" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J31" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K31" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L31" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M31" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N31" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O31" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P31" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R31" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S31" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T31" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H32" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I32" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J32" t="n">
         <v>186.8143629509072</v>
@@ -33429,16 +33429,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M32" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N32" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O32" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P32" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q32" t="n">
         <v>237.6924495160727</v>
@@ -33447,10 +33447,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S32" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T32" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U32" t="n">
         <v>0.1760868235004646</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H33" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I33" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J33" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K33" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L33" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M33" t="n">
         <v>298.3983819178579</v>
@@ -33523,16 +33523,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R33" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S33" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T33" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H34" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I34" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J34" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K34" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L34" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M34" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N34" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O34" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P34" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R34" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S34" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T34" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H35" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I35" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J35" t="n">
         <v>186.8143629509072</v>
@@ -33666,16 +33666,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M35" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N35" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O35" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P35" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q35" t="n">
         <v>237.6924495160727</v>
@@ -33684,10 +33684,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S35" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T35" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U35" t="n">
         <v>0.1760868235004646</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H36" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I36" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J36" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K36" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L36" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M36" t="n">
         <v>298.3983819178579</v>
@@ -33760,16 +33760,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R36" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S36" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T36" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H37" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I37" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J37" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K37" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L37" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M37" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N37" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O37" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P37" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R37" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S37" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T37" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.201085293755809</v>
+        <v>2.201085293755808</v>
       </c>
       <c r="H38" t="n">
-        <v>22.54186476467668</v>
+        <v>22.54186476467667</v>
       </c>
       <c r="I38" t="n">
-        <v>84.85734078752088</v>
+        <v>84.85734078752087</v>
       </c>
       <c r="J38" t="n">
         <v>186.8143629509072</v>
@@ -33903,16 +33903,16 @@
         <v>347.34776749437</v>
       </c>
       <c r="M38" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871998</v>
       </c>
       <c r="N38" t="n">
-        <v>392.7451516780836</v>
+        <v>392.7451516780835</v>
       </c>
       <c r="O38" t="n">
-        <v>370.8581097882993</v>
+        <v>370.8581097882991</v>
       </c>
       <c r="P38" t="n">
-        <v>316.5188165987027</v>
+        <v>316.5188165987026</v>
       </c>
       <c r="Q38" t="n">
         <v>237.6924495160727</v>
@@ -33921,10 +33921,10 @@
         <v>138.2639240838884</v>
       </c>
       <c r="S38" t="n">
-        <v>50.15723113146053</v>
+        <v>50.15723113146052</v>
       </c>
       <c r="T38" t="n">
-        <v>9.635250873416057</v>
+        <v>9.635250873416053</v>
       </c>
       <c r="U38" t="n">
         <v>0.1760868235004646</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.177684456937366</v>
+        <v>1.177684456937365</v>
       </c>
       <c r="H39" t="n">
         <v>11.37395251831614</v>
       </c>
       <c r="I39" t="n">
-        <v>40.54746924104527</v>
+        <v>40.54746924104526</v>
       </c>
       <c r="J39" t="n">
         <v>111.2653547670517</v>
       </c>
       <c r="K39" t="n">
-        <v>190.1702133818553</v>
+        <v>190.1702133818552</v>
       </c>
       <c r="L39" t="n">
-        <v>255.7073203538785</v>
+        <v>255.7073203538784</v>
       </c>
       <c r="M39" t="n">
         <v>298.3983819178579</v>
@@ -33997,16 +33997,16 @@
         <v>150.3303878715136</v>
       </c>
       <c r="R39" t="n">
-        <v>73.11974198423401</v>
+        <v>73.119741984234</v>
       </c>
       <c r="S39" t="n">
-        <v>21.87497225934097</v>
+        <v>21.87497225934096</v>
       </c>
       <c r="T39" t="n">
-        <v>4.746894806690521</v>
+        <v>4.74689480669052</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07747924058798462</v>
+        <v>0.07747924058798461</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9873310877113664</v>
+        <v>0.9873310877113661</v>
       </c>
       <c r="H40" t="n">
-        <v>8.778270943470154</v>
+        <v>8.778270943470153</v>
       </c>
       <c r="I40" t="n">
-        <v>29.6917385286291</v>
+        <v>29.69173852862909</v>
       </c>
       <c r="J40" t="n">
-        <v>69.8043079011936</v>
+        <v>69.80430790119358</v>
       </c>
       <c r="K40" t="n">
         <v>114.7099209177387</v>
       </c>
       <c r="L40" t="n">
-        <v>146.7892055311972</v>
+        <v>146.7892055311971</v>
       </c>
       <c r="M40" t="n">
-        <v>154.7686358673372</v>
+        <v>154.7686358673371</v>
       </c>
       <c r="N40" t="n">
         <v>151.0885836313222</v>
       </c>
       <c r="O40" t="n">
-        <v>139.5547613794212</v>
+        <v>139.5547613794211</v>
       </c>
       <c r="P40" t="n">
         <v>119.4132071901092</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.67551499008542</v>
+        <v>82.6755149900854</v>
       </c>
       <c r="R40" t="n">
         <v>44.39399599836742</v>
       </c>
       <c r="S40" t="n">
-        <v>17.20648813766081</v>
+        <v>17.2064881376608</v>
       </c>
       <c r="T40" t="n">
-        <v>4.218596465675837</v>
+        <v>4.218596465675836</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05385442296607459</v>
+        <v>0.05385442296607458</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>347.34776749437</v>
       </c>
       <c r="M44" t="n">
-        <v>386.4913180871999</v>
+        <v>386.4913180871996</v>
       </c>
       <c r="N44" t="n">
         <v>392.7451516780836</v>
@@ -34386,7 +34386,7 @@
         <v>370.8581097882993</v>
       </c>
       <c r="P44" t="n">
-        <v>316.5188165987032</v>
+        <v>316.5188165987027</v>
       </c>
       <c r="Q44" t="n">
         <v>237.6924495160727</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.69034674432572</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
@@ -35509,10 +35509,10 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>295.9748992312001</v>
+        <v>165.7599435450208</v>
       </c>
       <c r="R12" t="n">
-        <v>33.78553351613294</v>
+        <v>140.3062408746237</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>93.43012434365872</v>
+        <v>144.3886676590584</v>
       </c>
       <c r="M13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N13" t="n">
-        <v>453.4520759799035</v>
+        <v>97.97849100196758</v>
       </c>
       <c r="O13" t="n">
         <v>87.16477557810536</v>
       </c>
       <c r="P13" t="n">
-        <v>82.85598128134626</v>
+        <v>387.3710229438823</v>
       </c>
       <c r="Q13" t="n">
         <v>193.2504645920423</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.13410955589336</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J14" t="n">
         <v>117.3812187638195</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255357</v>
+        <v>234.6383920255356</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535735</v>
+        <v>266.2786873535734</v>
       </c>
       <c r="N14" t="n">
-        <v>271.3446719326303</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.034210637874</v>
+        <v>254.0342106378739</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35670,7 +35670,7 @@
         <v>150.6571718164749</v>
       </c>
       <c r="R14" t="n">
-        <v>73.61695629332709</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201446</v>
+        <v>39.38459507201445</v>
       </c>
       <c r="J15" t="n">
-        <v>361.8756844398183</v>
+        <v>180.7042593634251</v>
       </c>
       <c r="K15" t="n">
-        <v>197.4144057639431</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M15" t="n">
-        <v>211.3885843242577</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N15" t="n">
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378654</v>
+        <v>197.0138050378653</v>
       </c>
       <c r="P15" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.3845535096019</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="R15" t="n">
-        <v>140.3062408746237</v>
+        <v>33.78553351613294</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K16" t="n">
-        <v>69.17590691325472</v>
+        <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M16" t="n">
-        <v>99.04378543193862</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N16" t="n">
-        <v>258.4278133728874</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O16" t="n">
-        <v>453.4520759799036</v>
+        <v>87.16477557810536</v>
       </c>
       <c r="P16" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902609</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.34794198810393</v>
+        <v>40.3479419881039</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1875828195901</v>
+        <v>66.82266174326165</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471202</v>
       </c>
       <c r="M18" t="n">
-        <v>453.4520759799036</v>
+        <v>211.3885843242577</v>
       </c>
       <c r="N18" t="n">
         <v>219.3484664972891</v>
@@ -35983,7 +35983,7 @@
         <v>154.9475907538916</v>
       </c>
       <c r="Q18" t="n">
-        <v>95.3845535096019</v>
+        <v>134.3999059901982</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.21638531055223</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K19" t="n">
-        <v>318.9563201597417</v>
+        <v>116.9718588542018</v>
       </c>
       <c r="L19" t="n">
-        <v>453.4520759799036</v>
+        <v>93.43012434365875</v>
       </c>
       <c r="M19" t="n">
-        <v>99.04378543193862</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196763</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O19" t="n">
-        <v>364.1209851043363</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.45566478902612</v>
       </c>
       <c r="Q19" t="n">
         <v>40.34794198810393</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.13410955589337</v>
+        <v>32.13410955589335</v>
       </c>
       <c r="J20" t="n">
         <v>117.3812187638195</v>
       </c>
       <c r="K20" t="n">
-        <v>184.2523111213354</v>
+        <v>184.2523111213353</v>
       </c>
       <c r="L20" t="n">
-        <v>234.6383920255358</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M20" t="n">
-        <v>266.2786873535736</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N20" t="n">
-        <v>271.3446719326304</v>
+        <v>271.3446719326302</v>
       </c>
       <c r="O20" t="n">
-        <v>254.0342106378741</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P20" t="n">
-        <v>211.1492784199624</v>
+        <v>211.1492784199623</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.657171816475</v>
+        <v>150.6571718164749</v>
       </c>
       <c r="R20" t="n">
-        <v>73.61695629332712</v>
+        <v>73.61695629332706</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.38459507201447</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1875828195897</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285254</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L21" t="n">
-        <v>178.4230816471202</v>
+        <v>178.4230816471201</v>
       </c>
       <c r="M21" t="n">
-        <v>453.4520759799036</v>
+        <v>211.3885843242576</v>
       </c>
       <c r="N21" t="n">
-        <v>219.3484664972892</v>
+        <v>219.3484664972891</v>
       </c>
       <c r="O21" t="n">
         <v>197.0138050378654</v>
       </c>
       <c r="P21" t="n">
-        <v>154.9475907538916</v>
+        <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>95.38455350960193</v>
+        <v>165.7599435450197</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.21638531055224</v>
+        <v>112.9251900057248</v>
       </c>
       <c r="K22" t="n">
-        <v>69.17590691325475</v>
+        <v>69.17590691325471</v>
       </c>
       <c r="L22" t="n">
-        <v>219.9348809797787</v>
+        <v>93.43012434365872</v>
       </c>
       <c r="M22" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="O22" t="n">
-        <v>453.4520759799036</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="P22" t="n">
-        <v>71.45566478902614</v>
+        <v>119.2516167299731</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.34794198810394</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J23" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K23" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L23" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M23" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N23" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O23" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P23" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R23" t="n">
         <v>103.2312741890919</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24.37508249104527</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J24" t="n">
-        <v>164.1416866887928</v>
+        <v>90.6542404337184</v>
       </c>
       <c r="K24" t="n">
         <v>167.7709795485219</v>
@@ -36454,13 +36454,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P24" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.5833495825351</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R24" t="n">
-        <v>49.44682259008987</v>
+        <v>99.24002051747601</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.16755191729173</v>
+        <v>49.16755191729172</v>
       </c>
       <c r="K25" t="n">
-        <v>93.74526646502672</v>
+        <v>93.7452664650267</v>
       </c>
       <c r="L25" t="n">
-        <v>503.8233148715054</v>
+        <v>187.9079567166483</v>
       </c>
       <c r="M25" t="n">
         <v>549.9058025039542</v>
       </c>
       <c r="N25" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O25" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P25" t="n">
-        <v>97.03240653212272</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.05595222530047</v>
+        <v>58.05595222530046</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J26" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K26" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L26" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M26" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N26" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O26" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P26" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R26" t="n">
-        <v>103.2312741890919</v>
+        <v>103.2312741890913</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>24.37508249104527</v>
+        <v>24.37508249104526</v>
       </c>
       <c r="J27" t="n">
-        <v>164.1416866887928</v>
+        <v>90.6542404337184</v>
       </c>
       <c r="K27" t="n">
         <v>167.7709795485219</v>
@@ -36691,13 +36691,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P27" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.5833495825351</v>
+        <v>201.0707958376099</v>
       </c>
       <c r="R27" t="n">
-        <v>49.44682259008987</v>
+        <v>49.44682259008985</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>49.16755191729173</v>
+        <v>49.16755191729172</v>
       </c>
       <c r="K28" t="n">
-        <v>93.74526646502672</v>
+        <v>156.7827775461791</v>
       </c>
       <c r="L28" t="n">
-        <v>505.0612472427333</v>
+        <v>124.8704456354959</v>
       </c>
       <c r="M28" t="n">
         <v>549.9058025039542</v>
       </c>
       <c r="N28" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O28" t="n">
-        <v>497.3351408059337</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P28" t="n">
-        <v>97.03240653212272</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.05595222530047</v>
+        <v>58.05595222530046</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J29" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K29" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L29" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M29" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N29" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O29" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P29" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R29" t="n">
         <v>103.2312741890919</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>24.37508249104527</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J30" t="n">
-        <v>90.65424043371841</v>
+        <v>90.6542404337184</v>
       </c>
       <c r="K30" t="n">
         <v>167.7709795485219</v>
@@ -36928,13 +36928,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P30" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.5833495825351</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R30" t="n">
-        <v>122.9342688451643</v>
+        <v>99.24002051747601</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8763566124643</v>
+        <v>49.16755191729172</v>
       </c>
       <c r="K31" t="n">
-        <v>115.5957777718732</v>
+        <v>93.7452664650267</v>
       </c>
       <c r="L31" t="n">
-        <v>505.0612472427333</v>
+        <v>503.823314871505</v>
       </c>
       <c r="M31" t="n">
-        <v>132.1931959758514</v>
+        <v>549.9058025039542</v>
       </c>
       <c r="N31" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O31" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P31" t="n">
-        <v>412.9477646869789</v>
+        <v>97.03240653212269</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.05595222530047</v>
+        <v>58.05595222530046</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J32" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K32" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L32" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M32" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N32" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O32" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P32" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q32" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R32" t="n">
         <v>103.2312741890919</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>24.37508249104527</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J33" t="n">
-        <v>90.65424043371841</v>
+        <v>90.6542404337184</v>
       </c>
       <c r="K33" t="n">
         <v>167.7709795485219</v>
@@ -37165,13 +37165,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P33" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q33" t="n">
-        <v>127.5833495825351</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R33" t="n">
-        <v>122.9342688451643</v>
+        <v>99.24002051747601</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.16755191729173</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K34" t="n">
-        <v>93.74526646502672</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L34" t="n">
-        <v>505.0612472427333</v>
+        <v>124.8704456354959</v>
       </c>
       <c r="M34" t="n">
         <v>549.9058025039542</v>
       </c>
       <c r="N34" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O34" t="n">
-        <v>497.3351408059337</v>
+        <v>117.0555738809967</v>
       </c>
       <c r="P34" t="n">
-        <v>97.03240653212272</v>
+        <v>376.1110345186987</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.05595222530047</v>
+        <v>210.9584748292389</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J35" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K35" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L35" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M35" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N35" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O35" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P35" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q35" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R35" t="n">
         <v>103.2312741890919</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24.37508249104527</v>
+        <v>24.37508249104526</v>
       </c>
       <c r="J36" t="n">
-        <v>90.65424043371841</v>
+        <v>164.1416866887933</v>
       </c>
       <c r="K36" t="n">
         <v>167.7709795485219</v>
@@ -37402,13 +37402,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P36" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q36" t="n">
-        <v>127.5833495825351</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R36" t="n">
-        <v>122.9342688451643</v>
+        <v>49.44682259008985</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>49.16755191729173</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K37" t="n">
-        <v>93.74526646502672</v>
+        <v>93.7452664650267</v>
       </c>
       <c r="L37" t="n">
-        <v>503.8233148715054</v>
+        <v>505.0612472427333</v>
       </c>
       <c r="M37" t="n">
-        <v>549.9058025039542</v>
+        <v>132.1931959758513</v>
       </c>
       <c r="N37" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O37" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P37" t="n">
-        <v>97.03240653212272</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.05595222530047</v>
+        <v>79.90646353214609</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.30943824355738</v>
+        <v>50.30943824355737</v>
       </c>
       <c r="J38" t="n">
-        <v>157.3944034653207</v>
+        <v>157.3944034653206</v>
       </c>
       <c r="K38" t="n">
-        <v>244.2217026407813</v>
+        <v>244.2217026407812</v>
       </c>
       <c r="L38" t="n">
-        <v>309.0357250617471</v>
+        <v>309.035725061747</v>
       </c>
       <c r="M38" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877679</v>
       </c>
       <c r="N38" t="n">
-        <v>355.4655288436376</v>
+        <v>355.4655288436375</v>
       </c>
       <c r="O38" t="n">
-        <v>333.4671504322752</v>
+        <v>333.467150432275</v>
       </c>
       <c r="P38" t="n">
-        <v>278.9434547884714</v>
+        <v>278.9434547884713</v>
       </c>
       <c r="Q38" t="n">
-        <v>201.5677749114747</v>
+        <v>201.5677749114746</v>
       </c>
       <c r="R38" t="n">
         <v>103.2312741890919</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>24.37508249104527</v>
+        <v>48.06933081873399</v>
       </c>
       <c r="J39" t="n">
-        <v>90.65424043371841</v>
+        <v>90.6542404337184</v>
       </c>
       <c r="K39" t="n">
         <v>167.7709795485219</v>
@@ -37639,13 +37639,13 @@
         <v>257.0292012228711</v>
       </c>
       <c r="P39" t="n">
-        <v>203.1152372431496</v>
+        <v>203.1152372431495</v>
       </c>
       <c r="Q39" t="n">
-        <v>127.5833495825351</v>
+        <v>127.583349582535</v>
       </c>
       <c r="R39" t="n">
-        <v>122.9342688451643</v>
+        <v>99.24002051747601</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>49.16755191729173</v>
+        <v>49.16755191729172</v>
       </c>
       <c r="K40" t="n">
-        <v>93.74526646502672</v>
+        <v>93.7452664650267</v>
       </c>
       <c r="L40" t="n">
-        <v>505.0612472427333</v>
+        <v>187.9079567166488</v>
       </c>
       <c r="M40" t="n">
         <v>549.9058025039542</v>
       </c>
       <c r="N40" t="n">
-        <v>532.3931400717624</v>
+        <v>532.3931400717623</v>
       </c>
       <c r="O40" t="n">
-        <v>497.3351408059337</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P40" t="n">
-        <v>97.03240653212272</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.05595222530047</v>
+        <v>58.05595222530046</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>24.37508249104527</v>
       </c>
       <c r="J42" t="n">
-        <v>90.65424043371841</v>
+        <v>164.1416866887928</v>
       </c>
       <c r="K42" t="n">
         <v>167.7709795485219</v>
@@ -37882,7 +37882,7 @@
         <v>127.5833495825351</v>
       </c>
       <c r="R42" t="n">
-        <v>122.9342688451643</v>
+        <v>49.44682259008987</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.16755191729173</v>
+        <v>127.8763566124643</v>
       </c>
       <c r="K43" t="n">
-        <v>93.74526646502672</v>
+        <v>115.5957777718728</v>
       </c>
       <c r="L43" t="n">
         <v>505.0612472427333</v>
       </c>
       <c r="M43" t="n">
-        <v>549.9058025039542</v>
+        <v>132.1931959758514</v>
       </c>
       <c r="N43" t="n">
         <v>532.3931400717624</v>
       </c>
       <c r="O43" t="n">
-        <v>497.3351408059337</v>
+        <v>498.5730731771616</v>
       </c>
       <c r="P43" t="n">
-        <v>97.03240653212272</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q43" t="n">
         <v>58.05595222530047</v>
@@ -38025,7 +38025,7 @@
         <v>309.0357250617471</v>
       </c>
       <c r="M44" t="n">
-        <v>349.0600551877681</v>
+        <v>349.0600551877678</v>
       </c>
       <c r="N44" t="n">
         <v>355.4655288436376</v>
@@ -38034,7 +38034,7 @@
         <v>333.4671504322752</v>
       </c>
       <c r="P44" t="n">
-        <v>278.9434547884719</v>
+        <v>278.9434547884714</v>
       </c>
       <c r="Q44" t="n">
         <v>201.5677749114747</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.37508249104527</v>
+        <v>48.069330818734</v>
       </c>
       <c r="J45" t="n">
-        <v>164.1416866887928</v>
+        <v>90.65424043371841</v>
       </c>
       <c r="K45" t="n">
         <v>167.7709795485219</v>
@@ -38119,7 +38119,7 @@
         <v>127.5833495825351</v>
       </c>
       <c r="R45" t="n">
-        <v>49.44682259008987</v>
+        <v>99.24002051747556</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>127.8763566124643</v>
       </c>
       <c r="K46" t="n">
-        <v>93.74526646502672</v>
+        <v>343.5256797115136</v>
       </c>
       <c r="L46" t="n">
-        <v>124.8704456354959</v>
+        <v>505.0612472427333</v>
       </c>
       <c r="M46" t="n">
-        <v>549.9058025039542</v>
+        <v>153.4142288483126</v>
       </c>
       <c r="N46" t="n">
-        <v>532.3931400717624</v>
+        <v>130.3396826557218</v>
       </c>
       <c r="O46" t="n">
         <v>498.5730731771616</v>
       </c>
       <c r="P46" t="n">
-        <v>244.3739484690213</v>
+        <v>412.9477646869789</v>
       </c>
       <c r="Q46" t="n">
         <v>210.9584748292389</v>
